--- a/cases/case1.xlsx
+++ b/cases/case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>url</t>
   </si>
@@ -144,7 +144,10 @@
     <t>loginvar</t>
   </si>
   <si>
-    <t>http://39.98.138.157:5000/api/getproductinfo?productid=8888</t>
+    <t>http://39.98.138.157:5000/api/getproductinfo</t>
+  </si>
+  <si>
+    <t>?productid=8888</t>
   </si>
   <si>
     <t>get</t>
@@ -441,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -482,7 +485,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,33 +551,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,70 +582,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,36 +665,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -699,150 +846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,11 +859,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,52 +904,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,9 +930,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,131 +974,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,11 +1108,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1434,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1503,59 +1506,61 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1563,25 +1568,25 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="138" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1589,20 +1594,21 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="http://39.98.138.157:5000/api/addcart" tooltip="http://39.98.138.157:5000/api/addcart"/>
     <hyperlink ref="A4" r:id="rId2" display="http://39.98.138.157:5000/api/getuserinfo"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://39.98.138.157:5000/api/getproductinfo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/cases/case1.xlsx
+++ b/cases/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="18650" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -484,10 +484,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,6 +500,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -513,15 +530,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,86 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,187 +665,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,32 +859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,15 +879,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,11 +900,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,11 +931,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,131 +974,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1569,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
